--- a/Survey Data Availabilty/Survey_Data_Availability_Plot.xlsx
+++ b/Survey Data Availabilty/Survey_Data_Availability_Plot.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\MSc Thesis\hiv-selftesting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\MSc Thesis\hivst\Survey Data Availabilty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A237F78-5BE4-4981-A7E1-E3FB0AC1AE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4B8C20-6383-4A99-AEEA-65D66E3F18C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="23226" windowHeight="13866" xr2:uid="{B65649F5-5A57-402F-8E23-597A74B654A6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
   <si>
     <t>Survey</t>
   </si>
@@ -125,18 +125,9 @@
     <t>Burundi</t>
   </si>
   <si>
-    <t>2019-21</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
     <t>2019-20</t>
   </si>
   <si>
-    <t>Gambia</t>
-  </si>
-  <si>
     <t>Ghana</t>
   </si>
   <si>
@@ -152,9 +143,6 @@
     <t>Mali</t>
   </si>
   <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
     <t>Senegal</t>
   </si>
   <si>
@@ -164,37 +152,16 @@
     <t xml:space="preserve">2019-20 </t>
   </si>
   <si>
-    <t xml:space="preserve">2019-21 </t>
-  </si>
-  <si>
     <t>MICS</t>
   </si>
   <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
     <t>Guinea-Bissau</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
     <t>2021-22</t>
   </si>
   <si>
-    <t>Comoros</t>
-  </si>
-  <si>
     <t>Both questions</t>
-  </si>
-  <si>
-    <t>Only HIVST Awareness Question (heard of hivst)</t>
   </si>
   <si>
     <t>Only HIVST uptake Question (ever used hivst)</t>
@@ -256,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -270,10 +237,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57ABB3C5-06E4-4A29-B08E-319E1D706606}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -620,12 +583,11 @@
     <col min="1" max="1" width="14.87890625" customWidth="1"/>
     <col min="2" max="2" width="14.46875" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.87890625" customWidth="1"/>
-    <col min="4" max="4" width="15.1171875" customWidth="1"/>
-    <col min="5" max="5" width="14.64453125" customWidth="1"/>
-    <col min="6" max="6" width="14.703125" customWidth="1"/>
+    <col min="4" max="4" width="14.64453125" customWidth="1"/>
+    <col min="5" max="5" width="14.703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -636,16 +598,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -656,16 +615,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -676,16 +632,13 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -696,16 +649,13 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -716,16 +666,13 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -736,16 +683,13 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -759,13 +703,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -776,16 +717,13 @@
         <v>18</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -796,16 +734,13 @@
         <v>19</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -816,16 +751,13 @@
         <v>24</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -839,13 +771,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -859,13 +788,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -879,13 +805,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -899,13 +822,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -913,24 +833,21 @@
         <v>2021</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
+      <c r="B16" s="1">
+        <v>2022</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -939,33 +856,27 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -973,595 +884,386 @@
         <v>2022</v>
       </c>
       <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C20" t="s">
         <v>33</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="1">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1">
         <v>2018</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C22" t="s">
         <v>34</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="1">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
         <v>2022</v>
       </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="1">
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1">
         <v>2018</v>
       </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1">
+      <c r="B31" s="1">
         <v>2017</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C33" t="s">
         <v>39</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C33" t="s">
-        <v>24</v>
-      </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1">
         <v>2018</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1">
         <v>2019</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1">
         <v>2017</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="1">
-        <v>2018</v>
+        <v>38</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B39" s="1">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B40" s="1">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C42" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C43" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C45" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A47" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C47" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
         <v>1</v>
       </c>
     </row>
